--- a/Code/Results/Cases/Case_3_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9981840918508109</v>
+        <v>1.022399915397922</v>
       </c>
       <c r="D2">
-        <v>1.014619331926888</v>
+        <v>1.02763747109014</v>
       </c>
       <c r="E2">
-        <v>1.004925173329266</v>
+        <v>1.023155570628548</v>
       </c>
       <c r="F2">
-        <v>0.9630808683145217</v>
+        <v>1.035986868834263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037802567523412</v>
+        <v>1.032199466818722</v>
       </c>
       <c r="J2">
-        <v>1.020419252408404</v>
+        <v>1.027585967381304</v>
       </c>
       <c r="K2">
-        <v>1.025878685169567</v>
+        <v>1.030456618849389</v>
       </c>
       <c r="L2">
-        <v>1.016316316479197</v>
+        <v>1.025987839658773</v>
       </c>
       <c r="M2">
-        <v>0.9750796876136008</v>
+        <v>1.038781901741791</v>
       </c>
       <c r="N2">
-        <v>1.010801603274788</v>
+        <v>1.013264242149561</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001721956511474</v>
+        <v>1.023135545098344</v>
       </c>
       <c r="D3">
-        <v>1.017154520149239</v>
+        <v>1.028179636389429</v>
       </c>
       <c r="E3">
-        <v>1.007675579227659</v>
+        <v>1.023774320408744</v>
       </c>
       <c r="F3">
-        <v>0.9742209220429346</v>
+        <v>1.038101791240905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039008236053339</v>
+        <v>1.032387479197491</v>
       </c>
       <c r="J3">
-        <v>1.02216578907468</v>
+        <v>1.027960741005537</v>
       </c>
       <c r="K3">
-        <v>1.027572511759951</v>
+        <v>1.030807269282013</v>
       </c>
       <c r="L3">
-        <v>1.018211182644025</v>
+        <v>1.026413921480994</v>
       </c>
       <c r="M3">
-        <v>0.9851946349075981</v>
+        <v>1.040702870266985</v>
       </c>
       <c r="N3">
-        <v>1.011385892508834</v>
+        <v>1.013389081851469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003966080688141</v>
+        <v>1.023612029969167</v>
       </c>
       <c r="D4">
-        <v>1.01876275881501</v>
+        <v>1.028530759865954</v>
       </c>
       <c r="E4">
-        <v>1.009425564737017</v>
+        <v>1.024175503470641</v>
       </c>
       <c r="F4">
-        <v>0.9811249545099165</v>
+        <v>1.039465354565955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039756617693439</v>
+        <v>1.032507873646105</v>
       </c>
       <c r="J4">
-        <v>1.023268874959597</v>
+        <v>1.028203042437432</v>
       </c>
       <c r="K4">
-        <v>1.028639887470983</v>
+        <v>1.031033761426051</v>
       </c>
       <c r="L4">
-        <v>1.019411547123001</v>
+        <v>1.02668974355078</v>
       </c>
       <c r="M4">
-        <v>0.9914566524057268</v>
+        <v>1.041940587210116</v>
       </c>
       <c r="N4">
-        <v>1.011754878919071</v>
+        <v>1.013469770746543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004899137132037</v>
+        <v>1.023812458854264</v>
       </c>
       <c r="D5">
-        <v>1.019431487763791</v>
+        <v>1.02867844470796</v>
       </c>
       <c r="E5">
-        <v>1.010154436884293</v>
+        <v>1.024344353668992</v>
       </c>
       <c r="F5">
-        <v>0.9839605699110497</v>
+        <v>1.040037444298577</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040063996818714</v>
+        <v>1.032558186084092</v>
       </c>
       <c r="J5">
-        <v>1.023726403300983</v>
+        <v>1.028304857133347</v>
       </c>
       <c r="K5">
-        <v>1.029082048476457</v>
+        <v>1.031128882229427</v>
       </c>
       <c r="L5">
-        <v>1.019910266405329</v>
+        <v>1.026805726865936</v>
       </c>
       <c r="M5">
-        <v>0.9940269406682585</v>
+        <v>1.042459686440195</v>
       </c>
       <c r="N5">
-        <v>1.01190791139567</v>
+        <v>1.013503670457349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005055204864592</v>
+        <v>1.023846118438106</v>
       </c>
       <c r="D6">
-        <v>1.019543346928192</v>
+        <v>1.028703245872756</v>
       </c>
       <c r="E6">
-        <v>1.010276425677036</v>
+        <v>1.02437271563281</v>
       </c>
       <c r="F6">
-        <v>0.9844329229081028</v>
+        <v>1.040133433936862</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040115192329587</v>
+        <v>1.032566616112232</v>
       </c>
       <c r="J6">
-        <v>1.023802867425659</v>
+        <v>1.028321949392915</v>
       </c>
       <c r="K6">
-        <v>1.029155912309565</v>
+        <v>1.031144847765628</v>
       </c>
       <c r="L6">
-        <v>1.019993663549527</v>
+        <v>1.02682520258005</v>
       </c>
       <c r="M6">
-        <v>0.994454998521794</v>
+        <v>1.04254677371548</v>
       </c>
       <c r="N6">
-        <v>1.011933486044136</v>
+        <v>1.013509361078443</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003978588455083</v>
+        <v>1.023614707660604</v>
       </c>
       <c r="D7">
-        <v>1.018771722963768</v>
+        <v>1.028532732954075</v>
       </c>
       <c r="E7">
-        <v>1.00943533040046</v>
+        <v>1.024177758899091</v>
       </c>
       <c r="F7">
-        <v>0.9811630994164187</v>
+        <v>1.039473003349779</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039760752908614</v>
+        <v>1.032508547106693</v>
       </c>
       <c r="J7">
-        <v>1.023275012541876</v>
+        <v>1.028204403082801</v>
       </c>
       <c r="K7">
-        <v>1.028645821073383</v>
+        <v>1.031035032814352</v>
       </c>
       <c r="L7">
-        <v>1.019418233960758</v>
+        <v>1.026691293217495</v>
       </c>
       <c r="M7">
-        <v>0.9914912346555436</v>
+        <v>1.041947528267501</v>
       </c>
       <c r="N7">
-        <v>1.011756931848638</v>
+        <v>1.013470223802425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.999389338515039</v>
+        <v>1.022648424209795</v>
       </c>
       <c r="D8">
-        <v>1.015482989429004</v>
+        <v>1.027820634506422</v>
       </c>
       <c r="E8">
-        <v>1.005861021701453</v>
+        <v>1.023364511452125</v>
       </c>
       <c r="F8">
-        <v>0.9669126048676041</v>
+        <v>1.036702655506081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038216840360693</v>
+        <v>1.032263268284127</v>
       </c>
       <c r="J8">
-        <v>1.021015269604779</v>
+        <v>1.027712665488712</v>
       </c>
       <c r="K8">
-        <v>1.026457239797908</v>
+        <v>1.030575205940606</v>
       </c>
       <c r="L8">
-        <v>1.016962182726675</v>
+        <v>1.026131811032427</v>
       </c>
       <c r="M8">
-        <v>0.9785602362623032</v>
+        <v>1.039432211049672</v>
       </c>
       <c r="N8">
-        <v>1.011001003065112</v>
+        <v>1.013306450994458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9909356882453946</v>
+        <v>1.020949456014173</v>
       </c>
       <c r="D9">
-        <v>1.009424098350726</v>
+        <v>1.026568205473672</v>
       </c>
       <c r="E9">
-        <v>0.9993203636663865</v>
+        <v>1.021937726452428</v>
       </c>
       <c r="F9">
-        <v>0.9391476865621482</v>
+        <v>1.031781871526001</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0352337605416</v>
+        <v>1.031821353692609</v>
       </c>
       <c r="J9">
-        <v>1.016812641825365</v>
+        <v>1.026844630696007</v>
       </c>
       <c r="K9">
-        <v>1.022366104404877</v>
+        <v>1.029761861105709</v>
       </c>
       <c r="L9">
-        <v>1.012424477128305</v>
+        <v>1.025146870054826</v>
       </c>
       <c r="M9">
-        <v>0.9533117558199083</v>
+        <v>1.034958271059596</v>
       </c>
       <c r="N9">
-        <v>1.009594929454488</v>
+        <v>1.013017174958473</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9850192116521957</v>
+        <v>1.019819388826343</v>
       </c>
       <c r="D10">
-        <v>1.005179188067393</v>
+        <v>1.025734895614699</v>
       </c>
       <c r="E10">
-        <v>0.9947731366979272</v>
+        <v>1.020990815605172</v>
       </c>
       <c r="F10">
-        <v>0.9182905393282993</v>
+        <v>1.028473247766501</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033035747360709</v>
+        <v>1.031520169071237</v>
       </c>
       <c r="J10">
-        <v>1.013840071243401</v>
+        <v>1.026264934213037</v>
       </c>
       <c r="K10">
-        <v>1.019455556111152</v>
+        <v>1.029217575630128</v>
       </c>
       <c r="L10">
-        <v>1.009237409452573</v>
+        <v>1.024490911538607</v>
       </c>
       <c r="M10">
-        <v>0.9343103752666106</v>
+        <v>1.031945955861773</v>
       </c>
       <c r="N10">
-        <v>1.008600444743532</v>
+        <v>1.012823871593205</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9823814452103959</v>
+        <v>1.019330680613148</v>
       </c>
       <c r="D11">
-        <v>1.003284231425753</v>
+        <v>1.025374461228677</v>
       </c>
       <c r="E11">
-        <v>0.992753181455292</v>
+        <v>1.020581821929762</v>
       </c>
       <c r="F11">
-        <v>0.908530887464569</v>
+        <v>1.027033501093418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032024608268614</v>
+        <v>1.031388181130102</v>
       </c>
       <c r="J11">
-        <v>1.012505999574191</v>
+        <v>1.026013684546025</v>
       </c>
       <c r="K11">
-        <v>1.018144476591867</v>
+        <v>1.028981407613776</v>
       </c>
       <c r="L11">
-        <v>1.007813068508582</v>
+        <v>1.024207040392957</v>
       </c>
       <c r="M11">
-        <v>0.9254117725353008</v>
+        <v>1.030634166371325</v>
       </c>
       <c r="N11">
-        <v>1.008154187563028</v>
+        <v>1.01274006353383</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9813892942257967</v>
+        <v>1.019149246413652</v>
       </c>
       <c r="D12">
-        <v>1.002570940053798</v>
+        <v>1.025240639692226</v>
       </c>
       <c r="E12">
-        <v>0.9919945169266774</v>
+        <v>1.020430058572179</v>
       </c>
       <c r="F12">
-        <v>0.9047767818600179</v>
+        <v>1.02649761411653</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031639019635733</v>
+        <v>1.031338917483726</v>
       </c>
       <c r="J12">
-        <v>1.012002724319579</v>
+        <v>1.025920323852178</v>
       </c>
       <c r="K12">
-        <v>1.017649050108836</v>
+        <v>1.028893610872203</v>
       </c>
       <c r="L12">
-        <v>1.007276713464089</v>
+        <v>1.024101623089896</v>
       </c>
       <c r="M12">
-        <v>0.9219878814988122</v>
+        <v>1.030145758833422</v>
       </c>
       <c r="N12">
-        <v>1.007985852397294</v>
+        <v>1.012708917624571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9816026911512226</v>
+        <v>1.019188160406992</v>
       </c>
       <c r="D13">
-        <v>1.002724385982332</v>
+        <v>1.025269342148602</v>
       </c>
       <c r="E13">
-        <v>0.992157644438</v>
+        <v>1.020462605291121</v>
       </c>
       <c r="F13">
-        <v>0.9055882566008484</v>
+        <v>1.02661261409143</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031722202976167</v>
+        <v>1.031349495466452</v>
       </c>
       <c r="J13">
-        <v>1.012111041716758</v>
+        <v>1.025940351634916</v>
       </c>
       <c r="K13">
-        <v>1.017755717358907</v>
+        <v>1.028912446893961</v>
       </c>
       <c r="L13">
-        <v>1.007392105095897</v>
+        <v>1.024124234315579</v>
       </c>
       <c r="M13">
-        <v>0.9227280208577919</v>
+        <v>1.030250576509708</v>
       </c>
       <c r="N13">
-        <v>1.008022081593626</v>
+        <v>1.0127155992438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.982299692227968</v>
+        <v>1.01931568128723</v>
       </c>
       <c r="D14">
-        <v>1.0032254684735</v>
+        <v>1.025363398274548</v>
       </c>
       <c r="E14">
-        <v>0.9926906452191865</v>
+        <v>1.020569273952848</v>
       </c>
       <c r="F14">
-        <v>0.9082233340308699</v>
+        <v>1.02698922717632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031992946782893</v>
+        <v>1.031384113832191</v>
       </c>
       <c r="J14">
-        <v>1.012464561168827</v>
+        <v>1.026005968042237</v>
       </c>
       <c r="K14">
-        <v>1.018103701836431</v>
+        <v>1.028974151805582</v>
       </c>
       <c r="L14">
-        <v>1.007768886136291</v>
+        <v>1.024198326051024</v>
       </c>
       <c r="M14">
-        <v>0.9251312910955759</v>
+        <v>1.030593818115883</v>
       </c>
       <c r="N14">
-        <v>1.008140326952109</v>
+        <v>1.012737489326187</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.982727466842787</v>
+        <v>1.019394263564785</v>
       </c>
       <c r="D15">
-        <v>1.003532924167841</v>
+        <v>1.025421357305402</v>
       </c>
       <c r="E15">
-        <v>0.9930179128115371</v>
+        <v>1.020635016621553</v>
       </c>
       <c r="F15">
-        <v>0.9098291336394081</v>
+        <v>1.027221123963387</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032158397908815</v>
+        <v>1.031405411851618</v>
       </c>
       <c r="J15">
-        <v>1.012681327010871</v>
+        <v>1.026046391795733</v>
       </c>
       <c r="K15">
-        <v>1.018316961881602</v>
+        <v>1.02901216050864</v>
       </c>
       <c r="L15">
-        <v>1.008000045894804</v>
+        <v>1.024243979754239</v>
       </c>
       <c r="M15">
-        <v>0.926595702892958</v>
+        <v>1.030805147141843</v>
       </c>
       <c r="N15">
-        <v>1.008212832936251</v>
+        <v>1.012750974429836</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851925941880072</v>
+        <v>1.01985183588521</v>
       </c>
       <c r="D16">
-        <v>1.005303681337252</v>
+        <v>1.025758824817307</v>
       </c>
       <c r="E16">
-        <v>0.9949060635190694</v>
+        <v>1.021017980858931</v>
       </c>
       <c r="F16">
-        <v>0.9189213587689025</v>
+        <v>1.028568646587739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033101515528886</v>
+        <v>1.031528895439642</v>
       </c>
       <c r="J16">
-        <v>1.013927564842252</v>
+        <v>1.026281603850201</v>
       </c>
       <c r="K16">
-        <v>1.019541433625117</v>
+        <v>1.029233239026547</v>
       </c>
       <c r="L16">
-        <v>1.009330953511195</v>
+        <v>1.024509754618546</v>
       </c>
       <c r="M16">
-        <v>0.9348853994247731</v>
+        <v>1.03203285549951</v>
       </c>
       <c r="N16">
-        <v>1.008629713703575</v>
+        <v>1.012829431426623</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9867179570127256</v>
+        <v>1.020139025095052</v>
       </c>
       <c r="D17">
-        <v>1.006398641631971</v>
+        <v>1.025970615268788</v>
       </c>
       <c r="E17">
-        <v>0.9960763479927243</v>
+        <v>1.021258479413677</v>
       </c>
       <c r="F17">
-        <v>0.9244174161086659</v>
+        <v>1.029411988548154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033676522698995</v>
+        <v>1.031605931509876</v>
       </c>
       <c r="J17">
-        <v>1.014696289876712</v>
+        <v>1.026429082828776</v>
       </c>
       <c r="K17">
-        <v>1.020295401984956</v>
+        <v>1.02937178488762</v>
       </c>
       <c r="L17">
-        <v>1.010153524580338</v>
+        <v>1.024676512267459</v>
       </c>
       <c r="M17">
-        <v>0.9398945359866351</v>
+        <v>1.032800950141429</v>
       </c>
       <c r="N17">
-        <v>1.008886880378168</v>
+        <v>1.01287861702472</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.987600426154447</v>
+        <v>1.020306597304905</v>
       </c>
       <c r="D18">
-        <v>1.007031892880671</v>
+        <v>1.026094187059995</v>
       </c>
       <c r="E18">
-        <v>0.9967540907830447</v>
+        <v>1.021398856973637</v>
       </c>
       <c r="F18">
-        <v>0.9275544440520508</v>
+        <v>1.029903213927805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034006270150471</v>
+        <v>1.03165071365105</v>
       </c>
       <c r="J18">
-        <v>1.015140199763758</v>
+        <v>1.026515081913104</v>
       </c>
       <c r="K18">
-        <v>1.020730340673564</v>
+        <v>1.029452549181968</v>
       </c>
       <c r="L18">
-        <v>1.010629089059461</v>
+        <v>1.024773794895357</v>
       </c>
       <c r="M18">
-        <v>0.9427529592566345</v>
+        <v>1.033248251443056</v>
       </c>
       <c r="N18">
-        <v>1.009035389938818</v>
+        <v>1.012907295875498</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9879001222381779</v>
+        <v>1.020363745179853</v>
       </c>
       <c r="D19">
-        <v>1.007246919315222</v>
+        <v>1.026136328274412</v>
       </c>
       <c r="E19">
-        <v>0.9969843776502282</v>
+        <v>1.021446738821352</v>
       </c>
       <c r="F19">
-        <v>0.9286129445590998</v>
+        <v>1.030070594527</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034117776897922</v>
+        <v>1.031665957507092</v>
       </c>
       <c r="J19">
-        <v>1.015290821249993</v>
+        <v>1.026544401484116</v>
       </c>
       <c r="K19">
-        <v>1.020877844368087</v>
+        <v>1.029480079718608</v>
       </c>
       <c r="L19">
-        <v>1.010790544340614</v>
+        <v>1.024806968405122</v>
       </c>
       <c r="M19">
-        <v>0.9437173343660727</v>
+        <v>1.033400649294639</v>
       </c>
       <c r="N19">
-        <v>1.009085780977701</v>
+        <v>1.012917072875444</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9865550562449041</v>
+        <v>1.020108206239458</v>
       </c>
       <c r="D20">
-        <v>1.006281729142276</v>
+        <v>1.025947888222434</v>
       </c>
       <c r="E20">
-        <v>0.9959512953294101</v>
+        <v>1.021232665965222</v>
       </c>
       <c r="F20">
-        <v>0.9238349750405026</v>
+        <v>1.029321576706755</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033615420710743</v>
+        <v>1.031597681967236</v>
       </c>
       <c r="J20">
-        <v>1.014614280284514</v>
+        <v>1.02641326209778</v>
       </c>
       <c r="K20">
-        <v>1.0202150139841</v>
+        <v>1.029356925106068</v>
       </c>
       <c r="L20">
-        <v>1.010065711888338</v>
+        <v>1.024658619120699</v>
       </c>
       <c r="M20">
-        <v>0.9393637664024193</v>
+        <v>1.032718615081703</v>
       </c>
       <c r="N20">
-        <v>1.008859444567706</v>
+        <v>1.012873340937583</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9820947928553673</v>
+        <v>1.019278126970225</v>
       </c>
       <c r="D21">
-        <v>1.003078180230007</v>
+        <v>1.025335699433055</v>
       </c>
       <c r="E21">
-        <v>0.9925339270404514</v>
+        <v>1.020537858400154</v>
       </c>
       <c r="F21">
-        <v>0.9074511120094387</v>
+        <v>1.026878354690708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031913505805193</v>
+        <v>1.031373926150208</v>
       </c>
       <c r="J21">
-        <v>1.012360678545108</v>
+        <v>1.025986646620369</v>
       </c>
       <c r="K21">
-        <v>1.018001469272582</v>
+        <v>1.028955983273957</v>
       </c>
       <c r="L21">
-        <v>1.007658140574541</v>
+        <v>1.024176507184913</v>
       </c>
       <c r="M21">
-        <v>0.9244270274357059</v>
+        <v>1.030492774046837</v>
       </c>
       <c r="N21">
-        <v>1.00810557980533</v>
+        <v>1.012731043679486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9792182690507039</v>
+        <v>1.018756766258462</v>
       </c>
       <c r="D22">
-        <v>1.001008885866993</v>
+        <v>1.024951138555325</v>
       </c>
       <c r="E22">
-        <v>0.9903364366169217</v>
+        <v>1.020101903225563</v>
       </c>
       <c r="F22">
-        <v>0.8963899533984945</v>
+        <v>1.025335816145898</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030784788271564</v>
+        <v>1.031231867607256</v>
       </c>
       <c r="J22">
-        <v>1.010898489862886</v>
+        <v>1.025718211952941</v>
       </c>
       <c r="K22">
-        <v>1.016560382990637</v>
+        <v>1.028703470406141</v>
       </c>
       <c r="L22">
-        <v>1.00610179247096</v>
+        <v>1.023873529641923</v>
       </c>
       <c r="M22">
-        <v>0.9143370664279972</v>
+        <v>1.029086626095992</v>
       </c>
       <c r="N22">
-        <v>1.007616541411264</v>
+        <v>1.012641484015555</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9807503848272811</v>
+        <v>1.019033097666235</v>
       </c>
       <c r="D23">
-        <v>1.002111428563255</v>
+        <v>1.025154968511969</v>
       </c>
       <c r="E23">
-        <v>0.9915062757484167</v>
+        <v>1.020332925833487</v>
       </c>
       <c r="F23">
-        <v>0.9023337398762324</v>
+        <v>1.0261541625699</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031389142969712</v>
+        <v>1.031307306186057</v>
       </c>
       <c r="J23">
-        <v>1.011678188857541</v>
+        <v>1.02586053355755</v>
       </c>
       <c r="K23">
-        <v>1.017329328713333</v>
+        <v>1.028837372524888</v>
       </c>
       <c r="L23">
-        <v>1.006931132046305</v>
+        <v>1.024034129809479</v>
       </c>
       <c r="M23">
-        <v>0.9197594675138022</v>
+        <v>1.029832695504116</v>
       </c>
       <c r="N23">
-        <v>1.007877306717653</v>
+        <v>1.012688969942857</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.986628686422372</v>
+        <v>1.020122131770021</v>
       </c>
       <c r="D24">
-        <v>1.006334573552097</v>
+        <v>1.025958157479322</v>
       </c>
       <c r="E24">
-        <v>0.9960078162268243</v>
+        <v>1.021244329646503</v>
       </c>
       <c r="F24">
-        <v>0.9240983660642449</v>
+        <v>1.029362432031334</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033643047433504</v>
+        <v>1.031601410049264</v>
       </c>
       <c r="J24">
-        <v>1.014651350666494</v>
+        <v>1.026420410876153</v>
       </c>
       <c r="K24">
-        <v>1.020251352755159</v>
+        <v>1.029363639747668</v>
       </c>
       <c r="L24">
-        <v>1.010105403682002</v>
+        <v>1.02466670421525</v>
       </c>
       <c r="M24">
-        <v>0.9396037927211304</v>
+        <v>1.03275582096019</v>
       </c>
       <c r="N24">
-        <v>1.008871846222076</v>
+        <v>1.012875725006092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9931678653746883</v>
+        <v>1.021388229848822</v>
       </c>
       <c r="D25">
-        <v>1.011024360926491</v>
+        <v>1.026891701899785</v>
       </c>
       <c r="E25">
-        <v>1.001042241641507</v>
+        <v>1.022305835374322</v>
       </c>
       <c r="F25">
-        <v>0.9466910661955201</v>
+        <v>1.033058829420263</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036039072781044</v>
+        <v>1.0319367541836</v>
       </c>
       <c r="J25">
-        <v>1.01792736620566</v>
+        <v>1.027069217488174</v>
       </c>
       <c r="K25">
-        <v>1.02345391491548</v>
+        <v>1.029972493154349</v>
       </c>
       <c r="L25">
-        <v>1.013624399668028</v>
+        <v>1.025401385750917</v>
       </c>
       <c r="M25">
-        <v>0.9601774362650836</v>
+        <v>1.036119998416571</v>
       </c>
       <c r="N25">
-        <v>1.009967889346927</v>
+        <v>1.013092040208938</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022399915397922</v>
+        <v>0.9981840918508105</v>
       </c>
       <c r="D2">
-        <v>1.02763747109014</v>
+        <v>1.014619331926888</v>
       </c>
       <c r="E2">
-        <v>1.023155570628548</v>
+        <v>1.004925173329266</v>
       </c>
       <c r="F2">
-        <v>1.035986868834263</v>
+        <v>0.9630808683145217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032199466818722</v>
+        <v>1.037802567523411</v>
       </c>
       <c r="J2">
-        <v>1.027585967381304</v>
+        <v>1.020419252408403</v>
       </c>
       <c r="K2">
-        <v>1.030456618849389</v>
+        <v>1.025878685169567</v>
       </c>
       <c r="L2">
-        <v>1.025987839658773</v>
+        <v>1.016316316479197</v>
       </c>
       <c r="M2">
-        <v>1.038781901741791</v>
+        <v>0.9750796876136006</v>
       </c>
       <c r="N2">
-        <v>1.013264242149561</v>
+        <v>1.010801603274788</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023135545098344</v>
+        <v>1.001721956511474</v>
       </c>
       <c r="D3">
-        <v>1.028179636389429</v>
+        <v>1.017154520149239</v>
       </c>
       <c r="E3">
-        <v>1.023774320408744</v>
+        <v>1.007675579227659</v>
       </c>
       <c r="F3">
-        <v>1.038101791240905</v>
+        <v>0.9742209220429356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032387479197491</v>
+        <v>1.039008236053339</v>
       </c>
       <c r="J3">
-        <v>1.027960741005537</v>
+        <v>1.02216578907468</v>
       </c>
       <c r="K3">
-        <v>1.030807269282013</v>
+        <v>1.027572511759951</v>
       </c>
       <c r="L3">
-        <v>1.026413921480994</v>
+        <v>1.018211182644025</v>
       </c>
       <c r="M3">
-        <v>1.040702870266985</v>
+        <v>0.9851946349075991</v>
       </c>
       <c r="N3">
-        <v>1.013389081851469</v>
+        <v>1.011385892508834</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023612029969167</v>
+        <v>1.003966080688141</v>
       </c>
       <c r="D4">
-        <v>1.028530759865954</v>
+        <v>1.01876275881501</v>
       </c>
       <c r="E4">
-        <v>1.024175503470641</v>
+        <v>1.009425564737017</v>
       </c>
       <c r="F4">
-        <v>1.039465354565955</v>
+        <v>0.9811249545099163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032507873646105</v>
+        <v>1.039756617693439</v>
       </c>
       <c r="J4">
-        <v>1.028203042437432</v>
+        <v>1.023268874959597</v>
       </c>
       <c r="K4">
-        <v>1.031033761426051</v>
+        <v>1.028639887470983</v>
       </c>
       <c r="L4">
-        <v>1.02668974355078</v>
+        <v>1.019411547123001</v>
       </c>
       <c r="M4">
-        <v>1.041940587210116</v>
+        <v>0.9914566524057264</v>
       </c>
       <c r="N4">
-        <v>1.013469770746543</v>
+        <v>1.011754878919071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023812458854264</v>
+        <v>1.004899137132037</v>
       </c>
       <c r="D5">
-        <v>1.02867844470796</v>
+        <v>1.019431487763792</v>
       </c>
       <c r="E5">
-        <v>1.024344353668992</v>
+        <v>1.010154436884293</v>
       </c>
       <c r="F5">
-        <v>1.040037444298577</v>
+        <v>0.98396056991105</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032558186084092</v>
+        <v>1.040063996818714</v>
       </c>
       <c r="J5">
-        <v>1.028304857133347</v>
+        <v>1.023726403300983</v>
       </c>
       <c r="K5">
-        <v>1.031128882229427</v>
+        <v>1.029082048476457</v>
       </c>
       <c r="L5">
-        <v>1.026805726865936</v>
+        <v>1.019910266405329</v>
       </c>
       <c r="M5">
-        <v>1.042459686440195</v>
+        <v>0.9940269406682589</v>
       </c>
       <c r="N5">
-        <v>1.013503670457349</v>
+        <v>1.011907911395671</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023846118438106</v>
+        <v>1.005055204864591</v>
       </c>
       <c r="D6">
-        <v>1.028703245872756</v>
+        <v>1.019543346928192</v>
       </c>
       <c r="E6">
-        <v>1.02437271563281</v>
+        <v>1.010276425677036</v>
       </c>
       <c r="F6">
-        <v>1.040133433936862</v>
+        <v>0.984432922908102</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032566616112232</v>
+        <v>1.040115192329587</v>
       </c>
       <c r="J6">
-        <v>1.028321949392915</v>
+        <v>1.023802867425659</v>
       </c>
       <c r="K6">
-        <v>1.031144847765628</v>
+        <v>1.029155912309565</v>
       </c>
       <c r="L6">
-        <v>1.02682520258005</v>
+        <v>1.019993663549526</v>
       </c>
       <c r="M6">
-        <v>1.04254677371548</v>
+        <v>0.9944549985217931</v>
       </c>
       <c r="N6">
-        <v>1.013509361078443</v>
+        <v>1.011933486044136</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023614707660604</v>
+        <v>1.003978588455083</v>
       </c>
       <c r="D7">
-        <v>1.028532732954075</v>
+        <v>1.018771722963768</v>
       </c>
       <c r="E7">
-        <v>1.024177758899091</v>
+        <v>1.00943533040046</v>
       </c>
       <c r="F7">
-        <v>1.039473003349779</v>
+        <v>0.9811630994164171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032508547106693</v>
+        <v>1.039760752908614</v>
       </c>
       <c r="J7">
-        <v>1.028204403082801</v>
+        <v>1.023275012541875</v>
       </c>
       <c r="K7">
-        <v>1.031035032814352</v>
+        <v>1.028645821073382</v>
       </c>
       <c r="L7">
-        <v>1.026691293217495</v>
+        <v>1.019418233960758</v>
       </c>
       <c r="M7">
-        <v>1.041947528267501</v>
+        <v>0.9914912346555419</v>
       </c>
       <c r="N7">
-        <v>1.013470223802425</v>
+        <v>1.011756931848637</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022648424209795</v>
+        <v>0.9993893385150392</v>
       </c>
       <c r="D8">
-        <v>1.027820634506422</v>
+        <v>1.015482989429004</v>
       </c>
       <c r="E8">
-        <v>1.023364511452125</v>
+        <v>1.005861021701454</v>
       </c>
       <c r="F8">
-        <v>1.036702655506081</v>
+        <v>0.9669126048676024</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032263268284127</v>
+        <v>1.038216840360693</v>
       </c>
       <c r="J8">
-        <v>1.027712665488712</v>
+        <v>1.021015269604779</v>
       </c>
       <c r="K8">
-        <v>1.030575205940606</v>
+        <v>1.026457239797908</v>
       </c>
       <c r="L8">
-        <v>1.026131811032427</v>
+        <v>1.016962182726675</v>
       </c>
       <c r="M8">
-        <v>1.039432211049672</v>
+        <v>0.9785602362623019</v>
       </c>
       <c r="N8">
-        <v>1.013306450994458</v>
+        <v>1.011001003065112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020949456014173</v>
+        <v>0.9909356882453947</v>
       </c>
       <c r="D9">
-        <v>1.026568205473672</v>
+        <v>1.009424098350726</v>
       </c>
       <c r="E9">
-        <v>1.021937726452428</v>
+        <v>0.9993203636663869</v>
       </c>
       <c r="F9">
-        <v>1.031781871526001</v>
+        <v>0.9391476865621473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031821353692609</v>
+        <v>1.035233760541601</v>
       </c>
       <c r="J9">
-        <v>1.026844630696007</v>
+        <v>1.016812641825365</v>
       </c>
       <c r="K9">
-        <v>1.029761861105709</v>
+        <v>1.022366104404877</v>
       </c>
       <c r="L9">
-        <v>1.025146870054826</v>
+        <v>1.012424477128305</v>
       </c>
       <c r="M9">
-        <v>1.034958271059596</v>
+        <v>0.9533117558199073</v>
       </c>
       <c r="N9">
-        <v>1.013017174958473</v>
+        <v>1.009594929454488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019819388826343</v>
+        <v>0.9850192116521954</v>
       </c>
       <c r="D10">
-        <v>1.025734895614699</v>
+        <v>1.005179188067392</v>
       </c>
       <c r="E10">
-        <v>1.020990815605172</v>
+        <v>0.9947731366979267</v>
       </c>
       <c r="F10">
-        <v>1.028473247766501</v>
+        <v>0.9182905393282983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031520169071237</v>
+        <v>1.033035747360709</v>
       </c>
       <c r="J10">
-        <v>1.026264934213037</v>
+        <v>1.013840071243401</v>
       </c>
       <c r="K10">
-        <v>1.029217575630128</v>
+        <v>1.019455556111151</v>
       </c>
       <c r="L10">
-        <v>1.024490911538607</v>
+        <v>1.009237409452572</v>
       </c>
       <c r="M10">
-        <v>1.031945955861773</v>
+        <v>0.9343103752666096</v>
       </c>
       <c r="N10">
-        <v>1.012823871593205</v>
+        <v>1.008600444743531</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019330680613148</v>
+        <v>0.9823814452103952</v>
       </c>
       <c r="D11">
-        <v>1.025374461228677</v>
+        <v>1.003284231425752</v>
       </c>
       <c r="E11">
-        <v>1.020581821929762</v>
+        <v>0.9927531814552915</v>
       </c>
       <c r="F11">
-        <v>1.027033501093418</v>
+        <v>0.9085308874645696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031388181130102</v>
+        <v>1.032024608268613</v>
       </c>
       <c r="J11">
-        <v>1.026013684546025</v>
+        <v>1.01250599957419</v>
       </c>
       <c r="K11">
-        <v>1.028981407613776</v>
+        <v>1.018144476591867</v>
       </c>
       <c r="L11">
-        <v>1.024207040392957</v>
+        <v>1.007813068508582</v>
       </c>
       <c r="M11">
-        <v>1.030634166371325</v>
+        <v>0.9254117725353013</v>
       </c>
       <c r="N11">
-        <v>1.01274006353383</v>
+        <v>1.008154187563028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019149246413652</v>
+        <v>0.981389294225796</v>
       </c>
       <c r="D12">
-        <v>1.025240639692226</v>
+        <v>1.002570940053798</v>
       </c>
       <c r="E12">
-        <v>1.020430058572179</v>
+        <v>0.9919945169266767</v>
       </c>
       <c r="F12">
-        <v>1.02649761411653</v>
+        <v>0.9047767818600168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031338917483726</v>
+        <v>1.031639019635732</v>
       </c>
       <c r="J12">
-        <v>1.025920323852178</v>
+        <v>1.012002724319578</v>
       </c>
       <c r="K12">
-        <v>1.028893610872203</v>
+        <v>1.017649050108836</v>
       </c>
       <c r="L12">
-        <v>1.024101623089896</v>
+        <v>1.007276713464088</v>
       </c>
       <c r="M12">
-        <v>1.030145758833422</v>
+        <v>0.9219878814988109</v>
       </c>
       <c r="N12">
-        <v>1.012708917624571</v>
+        <v>1.007985852397294</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019188160406992</v>
+        <v>0.9816026911512221</v>
       </c>
       <c r="D13">
-        <v>1.025269342148602</v>
+        <v>1.002724385982332</v>
       </c>
       <c r="E13">
-        <v>1.020462605291121</v>
+        <v>0.9921576444379996</v>
       </c>
       <c r="F13">
-        <v>1.02661261409143</v>
+        <v>0.9055882566008476</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031349495466452</v>
+        <v>1.031722202976167</v>
       </c>
       <c r="J13">
-        <v>1.025940351634916</v>
+        <v>1.012111041716758</v>
       </c>
       <c r="K13">
-        <v>1.028912446893961</v>
+        <v>1.017755717358907</v>
       </c>
       <c r="L13">
-        <v>1.024124234315579</v>
+        <v>1.007392105095897</v>
       </c>
       <c r="M13">
-        <v>1.030250576509708</v>
+        <v>0.9227280208577913</v>
       </c>
       <c r="N13">
-        <v>1.0127155992438</v>
+        <v>1.008022081593625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01931568128723</v>
+        <v>0.9822996922279674</v>
       </c>
       <c r="D14">
-        <v>1.025363398274548</v>
+        <v>1.0032254684735</v>
       </c>
       <c r="E14">
-        <v>1.020569273952848</v>
+        <v>0.9926906452191859</v>
       </c>
       <c r="F14">
-        <v>1.02698922717632</v>
+        <v>0.9082233340308701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031384113832191</v>
+        <v>1.031992946782893</v>
       </c>
       <c r="J14">
-        <v>1.026005968042237</v>
+        <v>1.012464561168827</v>
       </c>
       <c r="K14">
-        <v>1.028974151805582</v>
+        <v>1.018103701836431</v>
       </c>
       <c r="L14">
-        <v>1.024198326051024</v>
+        <v>1.00776888613629</v>
       </c>
       <c r="M14">
-        <v>1.030593818115883</v>
+        <v>0.9251312910955765</v>
       </c>
       <c r="N14">
-        <v>1.012737489326187</v>
+        <v>1.008140326952108</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019394263564785</v>
+        <v>0.9827274668427864</v>
       </c>
       <c r="D15">
-        <v>1.025421357305402</v>
+        <v>1.00353292416784</v>
       </c>
       <c r="E15">
-        <v>1.020635016621553</v>
+        <v>0.9930179128115364</v>
       </c>
       <c r="F15">
-        <v>1.027221123963387</v>
+        <v>0.9098291336394081</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031405411851618</v>
+        <v>1.032158397908815</v>
       </c>
       <c r="J15">
-        <v>1.026046391795733</v>
+        <v>1.012681327010871</v>
       </c>
       <c r="K15">
-        <v>1.02901216050864</v>
+        <v>1.018316961881602</v>
       </c>
       <c r="L15">
-        <v>1.024243979754239</v>
+        <v>1.008000045894804</v>
       </c>
       <c r="M15">
-        <v>1.030805147141843</v>
+        <v>0.9265957028929581</v>
       </c>
       <c r="N15">
-        <v>1.012750974429836</v>
+        <v>1.008212832936251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01985183588521</v>
+        <v>0.9851925941880065</v>
       </c>
       <c r="D16">
-        <v>1.025758824817307</v>
+        <v>1.005303681337252</v>
       </c>
       <c r="E16">
-        <v>1.021017980858931</v>
+        <v>0.9949060635190689</v>
       </c>
       <c r="F16">
-        <v>1.028568646587739</v>
+        <v>0.9189213587689025</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031528895439642</v>
+        <v>1.033101515528885</v>
       </c>
       <c r="J16">
-        <v>1.026281603850201</v>
+        <v>1.013927564842252</v>
       </c>
       <c r="K16">
-        <v>1.029233239026547</v>
+        <v>1.019541433625116</v>
       </c>
       <c r="L16">
-        <v>1.024509754618546</v>
+        <v>1.009330953511194</v>
       </c>
       <c r="M16">
-        <v>1.03203285549951</v>
+        <v>0.934885399424773</v>
       </c>
       <c r="N16">
-        <v>1.012829431426623</v>
+        <v>1.008629713703575</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020139025095052</v>
+        <v>0.9867179570127247</v>
       </c>
       <c r="D17">
-        <v>1.025970615268788</v>
+        <v>1.006398641631971</v>
       </c>
       <c r="E17">
-        <v>1.021258479413677</v>
+        <v>0.9960763479927233</v>
       </c>
       <c r="F17">
-        <v>1.029411988548154</v>
+        <v>0.924417416108666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031605931509876</v>
+        <v>1.033676522698995</v>
       </c>
       <c r="J17">
-        <v>1.026429082828776</v>
+        <v>1.014696289876711</v>
       </c>
       <c r="K17">
-        <v>1.02937178488762</v>
+        <v>1.020295401984955</v>
       </c>
       <c r="L17">
-        <v>1.024676512267459</v>
+        <v>1.010153524580337</v>
       </c>
       <c r="M17">
-        <v>1.032800950141429</v>
+        <v>0.9398945359866351</v>
       </c>
       <c r="N17">
-        <v>1.01287861702472</v>
+        <v>1.008886880378168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020306597304905</v>
+        <v>0.9876004261544459</v>
       </c>
       <c r="D18">
-        <v>1.026094187059995</v>
+        <v>1.00703189288067</v>
       </c>
       <c r="E18">
-        <v>1.021398856973637</v>
+        <v>0.9967540907830434</v>
       </c>
       <c r="F18">
-        <v>1.029903213927805</v>
+        <v>0.9275544440520499</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03165071365105</v>
+        <v>1.034006270150471</v>
       </c>
       <c r="J18">
-        <v>1.026515081913104</v>
+        <v>1.015140199763757</v>
       </c>
       <c r="K18">
-        <v>1.029452549181968</v>
+        <v>1.020730340673563</v>
       </c>
       <c r="L18">
-        <v>1.024773794895357</v>
+        <v>1.01062908905946</v>
       </c>
       <c r="M18">
-        <v>1.033248251443056</v>
+        <v>0.9427529592566336</v>
       </c>
       <c r="N18">
-        <v>1.012907295875498</v>
+        <v>1.009035389938818</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020363745179853</v>
+        <v>0.9879001222381778</v>
       </c>
       <c r="D19">
-        <v>1.026136328274412</v>
+        <v>1.007246919315222</v>
       </c>
       <c r="E19">
-        <v>1.021446738821352</v>
+        <v>0.996984377650228</v>
       </c>
       <c r="F19">
-        <v>1.030070594527</v>
+        <v>0.9286129445591003</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031665957507092</v>
+        <v>1.034117776897922</v>
       </c>
       <c r="J19">
-        <v>1.026544401484116</v>
+        <v>1.015290821249993</v>
       </c>
       <c r="K19">
-        <v>1.029480079718608</v>
+        <v>1.020877844368087</v>
       </c>
       <c r="L19">
-        <v>1.024806968405122</v>
+        <v>1.010790544340614</v>
       </c>
       <c r="M19">
-        <v>1.033400649294639</v>
+        <v>0.943717334366073</v>
       </c>
       <c r="N19">
-        <v>1.012917072875444</v>
+        <v>1.009085780977701</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020108206239458</v>
+        <v>0.9865550562449045</v>
       </c>
       <c r="D20">
-        <v>1.025947888222434</v>
+        <v>1.006281729142276</v>
       </c>
       <c r="E20">
-        <v>1.021232665965222</v>
+        <v>0.9959512953294106</v>
       </c>
       <c r="F20">
-        <v>1.029321576706755</v>
+        <v>0.923834975040503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031597681967236</v>
+        <v>1.033615420710744</v>
       </c>
       <c r="J20">
-        <v>1.02641326209778</v>
+        <v>1.014614280284514</v>
       </c>
       <c r="K20">
-        <v>1.029356925106068</v>
+        <v>1.020215013984101</v>
       </c>
       <c r="L20">
-        <v>1.024658619120699</v>
+        <v>1.010065711888338</v>
       </c>
       <c r="M20">
-        <v>1.032718615081703</v>
+        <v>0.9393637664024199</v>
       </c>
       <c r="N20">
-        <v>1.012873340937583</v>
+        <v>1.008859444567707</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019278126970225</v>
+        <v>0.9820947928553667</v>
       </c>
       <c r="D21">
-        <v>1.025335699433055</v>
+        <v>1.003078180230006</v>
       </c>
       <c r="E21">
-        <v>1.020537858400154</v>
+        <v>0.9925339270404511</v>
       </c>
       <c r="F21">
-        <v>1.026878354690708</v>
+        <v>0.9074511120094381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031373926150208</v>
+        <v>1.031913505805192</v>
       </c>
       <c r="J21">
-        <v>1.025986646620369</v>
+        <v>1.012360678545107</v>
       </c>
       <c r="K21">
-        <v>1.028955983273957</v>
+        <v>1.018001469272581</v>
       </c>
       <c r="L21">
-        <v>1.024176507184913</v>
+        <v>1.00765814057454</v>
       </c>
       <c r="M21">
-        <v>1.030492774046837</v>
+        <v>0.9244270274357054</v>
       </c>
       <c r="N21">
-        <v>1.012731043679486</v>
+        <v>1.00810557980533</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018756766258462</v>
+        <v>0.9792182690507036</v>
       </c>
       <c r="D22">
-        <v>1.024951138555325</v>
+        <v>1.001008885866993</v>
       </c>
       <c r="E22">
-        <v>1.020101903225563</v>
+        <v>0.9903364366169214</v>
       </c>
       <c r="F22">
-        <v>1.025335816145898</v>
+        <v>0.896389953398494</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031231867607256</v>
+        <v>1.030784788271564</v>
       </c>
       <c r="J22">
-        <v>1.025718211952941</v>
+        <v>1.010898489862886</v>
       </c>
       <c r="K22">
-        <v>1.028703470406141</v>
+        <v>1.016560382990637</v>
       </c>
       <c r="L22">
-        <v>1.023873529641923</v>
+        <v>1.00610179247096</v>
       </c>
       <c r="M22">
-        <v>1.029086626095992</v>
+        <v>0.9143370664279966</v>
       </c>
       <c r="N22">
-        <v>1.012641484015555</v>
+        <v>1.007616541411264</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019033097666235</v>
+        <v>0.9807503848272813</v>
       </c>
       <c r="D23">
-        <v>1.025154968511969</v>
+        <v>1.002111428563255</v>
       </c>
       <c r="E23">
-        <v>1.020332925833487</v>
+        <v>0.991506275748417</v>
       </c>
       <c r="F23">
-        <v>1.0261541625699</v>
+        <v>0.9023337398762317</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031307306186057</v>
+        <v>1.031389142969712</v>
       </c>
       <c r="J23">
-        <v>1.02586053355755</v>
+        <v>1.011678188857541</v>
       </c>
       <c r="K23">
-        <v>1.028837372524888</v>
+        <v>1.017329328713333</v>
       </c>
       <c r="L23">
-        <v>1.024034129809479</v>
+        <v>1.006931132046305</v>
       </c>
       <c r="M23">
-        <v>1.029832695504116</v>
+        <v>0.9197594675138016</v>
       </c>
       <c r="N23">
-        <v>1.012688969942857</v>
+        <v>1.007877306717653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020122131770021</v>
+        <v>0.9866286864223717</v>
       </c>
       <c r="D24">
-        <v>1.025958157479322</v>
+        <v>1.006334573552097</v>
       </c>
       <c r="E24">
-        <v>1.021244329646503</v>
+        <v>0.9960078162268233</v>
       </c>
       <c r="F24">
-        <v>1.029362432031334</v>
+        <v>0.9240983660642458</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031601410049264</v>
+        <v>1.033643047433504</v>
       </c>
       <c r="J24">
-        <v>1.026420410876153</v>
+        <v>1.014651350666494</v>
       </c>
       <c r="K24">
-        <v>1.029363639747668</v>
+        <v>1.020251352755159</v>
       </c>
       <c r="L24">
-        <v>1.02466670421525</v>
+        <v>1.010105403682001</v>
       </c>
       <c r="M24">
-        <v>1.03275582096019</v>
+        <v>0.9396037927211309</v>
       </c>
       <c r="N24">
-        <v>1.012875725006092</v>
+        <v>1.008871846222076</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021388229848822</v>
+        <v>0.9931678653746878</v>
       </c>
       <c r="D25">
-        <v>1.026891701899785</v>
+        <v>1.011024360926491</v>
       </c>
       <c r="E25">
-        <v>1.022305835374322</v>
+        <v>1.001042241641507</v>
       </c>
       <c r="F25">
-        <v>1.033058829420263</v>
+        <v>0.946691066195521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0319367541836</v>
+        <v>1.036039072781044</v>
       </c>
       <c r="J25">
-        <v>1.027069217488174</v>
+        <v>1.017927366205659</v>
       </c>
       <c r="K25">
-        <v>1.029972493154349</v>
+        <v>1.02345391491548</v>
       </c>
       <c r="L25">
-        <v>1.025401385750917</v>
+        <v>1.013624399668027</v>
       </c>
       <c r="M25">
-        <v>1.036119998416571</v>
+        <v>0.9601774362650843</v>
       </c>
       <c r="N25">
-        <v>1.013092040208938</v>
+        <v>1.009967889346927</v>
       </c>
     </row>
   </sheetData>
